--- a/Code/Results/Cases/Case_2_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9313451418060765</v>
+        <v>0.4523597029431983</v>
       </c>
       <c r="C2">
-        <v>0.1048204468794438</v>
+        <v>0.1287589183487867</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05188219703157237</v>
+        <v>0.1171229856424318</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.000827049053130293</v>
+        <v>0.002481159070970639</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4072417307413119</v>
+        <v>0.9845259143874507</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8238136849699913</v>
+        <v>0.2757525494700133</v>
       </c>
       <c r="L2">
-        <v>0.1575876038843589</v>
+        <v>0.2112457154521081</v>
       </c>
       <c r="M2">
-        <v>0.2024748068504749</v>
+        <v>0.1439763166999981</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.589062827659703</v>
+        <v>3.726952385020709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8099966205159035</v>
+        <v>0.4162846600611942</v>
       </c>
       <c r="C3">
-        <v>0.1013836765564662</v>
+        <v>0.1276140261129797</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0511828691506615</v>
+        <v>0.1176478481342205</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008304318827193746</v>
+        <v>0.002483328078575043</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4237402493495281</v>
+        <v>0.9956685842478841</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7191015977388986</v>
+        <v>0.2429546270339245</v>
       </c>
       <c r="L3">
-        <v>0.1439274406429618</v>
+        <v>0.208750502066934</v>
       </c>
       <c r="M3">
-        <v>0.1771975170617246</v>
+        <v>0.1370848447005635</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.635704145459115</v>
+        <v>3.766878640232349</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7355887376150463</v>
+        <v>0.3941993028792865</v>
       </c>
       <c r="C4">
-        <v>0.09928365027153063</v>
+        <v>0.1269118651315111</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0508244688761863</v>
+        <v>0.1180178252732205</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008325772464403285</v>
+        <v>0.002484730859651526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.434704725302371</v>
+        <v>1.002976018568582</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6547956523232017</v>
+        <v>0.2227811129830997</v>
       </c>
       <c r="L4">
-        <v>0.1357052015886282</v>
+        <v>0.2073195973426252</v>
       </c>
       <c r="M4">
-        <v>0.161750496540936</v>
+        <v>0.1329005115409032</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.667862777219995</v>
+        <v>3.793306284234376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7052833797967537</v>
+        <v>0.3852163118349381</v>
       </c>
       <c r="C5">
-        <v>0.09843018463637065</v>
+        <v>0.1266259592590373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05069578773201577</v>
+        <v>0.1181806122763227</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008334689485283351</v>
+        <v>0.002485320410211591</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.439376827895865</v>
+        <v>1.006071009493059</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6285801276613086</v>
+        <v>0.2145518526503736</v>
       </c>
       <c r="L5">
-        <v>0.1323937658102068</v>
+        <v>0.2067620058614992</v>
       </c>
       <c r="M5">
-        <v>0.1554718186158119</v>
+        <v>0.1312073283952166</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.681824485468951</v>
+        <v>3.804556776888262</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7002519437448029</v>
+        <v>0.3837257375166985</v>
       </c>
       <c r="C6">
-        <v>0.09828860019975849</v>
+        <v>0.1265784995356185</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05067545572277865</v>
+        <v>0.1182083694391665</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008336180767528597</v>
+        <v>0.002485419387507209</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4401647823283934</v>
+        <v>1.00659200682796</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6242262326580885</v>
+        <v>0.2131848990620284</v>
       </c>
       <c r="L6">
-        <v>0.1318462053520832</v>
+        <v>0.2066709613903939</v>
       </c>
       <c r="M6">
-        <v>0.1544301560044197</v>
+        <v>0.1309269033057561</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.68419375579991</v>
+        <v>3.806453965636848</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7351799736337341</v>
+        <v>0.3940780855270702</v>
       </c>
       <c r="C7">
-        <v>0.0992721310824578</v>
+        <v>0.12690800833537</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0508226637287752</v>
+        <v>0.1180199719854613</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008325892012037275</v>
+        <v>0.002484738737989726</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4347669164550929</v>
+        <v>1.003017284320432</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6544421516674532</v>
+        <v>0.2226701635703563</v>
       </c>
       <c r="L7">
-        <v>0.1356603867243749</v>
+        <v>0.207311974065</v>
       </c>
       <c r="M7">
-        <v>0.1616657578664871</v>
+        <v>0.1328776280514425</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.668047637264493</v>
+        <v>3.793456064665079</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8894777790542605</v>
+        <v>0.4399079496160709</v>
       </c>
       <c r="C8">
-        <v>0.103633185080092</v>
+        <v>0.1283640079237145</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05162603890651773</v>
+        <v>0.1172940688697981</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008282014486120478</v>
+        <v>0.002481892238955574</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4127536878433915</v>
+        <v>0.9882712483477931</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7877069900628442</v>
+        <v>0.2644514902856656</v>
       </c>
       <c r="L8">
-        <v>0.1528418573673704</v>
+        <v>0.2103644123352879</v>
       </c>
       <c r="M8">
-        <v>0.1937425261541144</v>
+        <v>0.1415904477198353</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.604396501461324</v>
+        <v>3.740321986186132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193292136264233</v>
+        <v>0.5302704066480715</v>
       </c>
       <c r="C9">
-        <v>0.1122782695042304</v>
+        <v>0.1312245696748917</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05378753598429142</v>
+        <v>0.1162482338601052</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008201257889088957</v>
+        <v>0.002476871280257576</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3764789120538587</v>
+        <v>0.9630487987687779</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.049301800973808</v>
+        <v>0.3460840320424268</v>
       </c>
       <c r="L9">
-        <v>0.1879575736746162</v>
+        <v>0.2171501966113283</v>
       </c>
       <c r="M9">
-        <v>0.257341296860929</v>
+        <v>0.159044739797217</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.508857537562108</v>
+        <v>3.651301402494781</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.417928229336354</v>
+        <v>0.5969324507784393</v>
       </c>
       <c r="C10">
-        <v>0.1187059920324387</v>
+        <v>0.1333282834536931</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05576626529546758</v>
+        <v>0.1157089544541385</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008144955609615696</v>
+        <v>0.002473521088188213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.354427526750591</v>
+        <v>0.9467679581041963</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.242208002340647</v>
+        <v>0.4058563027639366</v>
       </c>
       <c r="L10">
-        <v>0.2147916108385886</v>
+        <v>0.2226204855192577</v>
       </c>
       <c r="M10">
-        <v>0.3046647219443557</v>
+        <v>0.1720878438163709</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.458481309843521</v>
+        <v>3.595146510079303</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.520590732350655</v>
+        <v>0.6273128576712566</v>
       </c>
       <c r="C11">
-        <v>0.1216514705006873</v>
+        <v>0.1342855251342669</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05675907573357186</v>
+        <v>0.1155131324669121</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008119954984987125</v>
+        <v>0.002472069842852375</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3454880466622505</v>
+        <v>0.9398495092083685</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.330253568326953</v>
+        <v>0.4330002813868248</v>
       </c>
       <c r="L11">
-        <v>0.227263210738343</v>
+        <v>0.2252137574048874</v>
       </c>
       <c r="M11">
-        <v>0.3263643160610386</v>
+        <v>0.1780681226675398</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.440330378426808</v>
+        <v>3.571607914037386</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.559548488240353</v>
+        <v>0.6388245321844295</v>
       </c>
       <c r="C12">
-        <v>0.122770360656844</v>
+        <v>0.1346480194514683</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05714903826073936</v>
+        <v>0.1154460772779391</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008110571949887498</v>
+        <v>0.00247153070588587</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3422682741798155</v>
+        <v>0.9372997948468402</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.363647584777141</v>
+        <v>0.4432718265495055</v>
       </c>
       <c r="L12">
-        <v>0.2320273934519577</v>
+        <v>0.2262107690738304</v>
       </c>
       <c r="M12">
-        <v>0.3346096948070851</v>
+        <v>0.1803393275260774</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.434183857896002</v>
+        <v>3.562983000017724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.551154380152298</v>
+        <v>0.6363449748627374</v>
       </c>
       <c r="C13">
-        <v>0.1225292249371179</v>
+        <v>0.134569949926636</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05706441864759171</v>
+        <v>0.1154602034229715</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008112589074489795</v>
+        <v>0.002471646356010548</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3429542132070758</v>
+        <v>0.9378458012787902</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.356453039178064</v>
+        <v>0.4410599988362662</v>
       </c>
       <c r="L13">
-        <v>0.2309994410829148</v>
+        <v>0.2259953790321276</v>
       </c>
       <c r="M13">
-        <v>0.3328325920063477</v>
+        <v>0.1798498915076436</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.435474603380698</v>
+        <v>3.564827690534131</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523794092468421</v>
+        <v>0.6282597883351286</v>
       </c>
       <c r="C14">
-        <v>0.1217434495943976</v>
+        <v>0.1343153477688261</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05679087343319367</v>
+        <v>0.1155074736466677</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008119181373321457</v>
+        <v>0.002472025279103355</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3452197887800104</v>
+        <v>0.9396383366694785</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.332999783754644</v>
+        <v>0.4338454769655868</v>
       </c>
       <c r="L14">
-        <v>0.2276543117666279</v>
+        <v>0.2252954820490345</v>
       </c>
       <c r="M14">
-        <v>0.3270420820433202</v>
+        <v>0.1782548445353314</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.439809885635682</v>
+        <v>3.570892551778769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.507046181635587</v>
+        <v>0.6233083044029399</v>
       </c>
       <c r="C15">
-        <v>0.1212626083907082</v>
+        <v>0.134159396752743</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05662516403920037</v>
+        <v>0.1155373518580713</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008123230190040325</v>
+        <v>0.002472258735851478</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3466293199588613</v>
+        <v>0.940745452493907</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.318641243868569</v>
+        <v>0.4294254076539517</v>
       </c>
       <c r="L15">
-        <v>0.2256108272547976</v>
+        <v>0.2248687255964654</v>
       </c>
       <c r="M15">
-        <v>0.3234990094008054</v>
+        <v>0.1772786879125121</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.442561307833515</v>
+        <v>3.574645047089334</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411229669726936</v>
+        <v>0.5949480761209713</v>
       </c>
       <c r="C16">
-        <v>0.1185139647154116</v>
+        <v>0.1332657280795644</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05570330492662734</v>
+        <v>0.1157227462564254</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008146601446932583</v>
+        <v>0.002473617390879345</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3550344199768212</v>
+        <v>0.9472299112902505</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.236460818736333</v>
+        <v>0.4040813907911911</v>
       </c>
       <c r="L16">
-        <v>0.2139821738724237</v>
+        <v>0.2224531116835777</v>
       </c>
       <c r="M16">
-        <v>0.3032503550252557</v>
+        <v>0.1716979502516907</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.45976690227775</v>
+        <v>3.596725198294678</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.352580139274949</v>
+        <v>0.5775637071417918</v>
       </c>
       <c r="C17">
-        <v>0.1168335437409027</v>
+        <v>0.1327175354032732</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05516198252825966</v>
+        <v>0.1158491436757085</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008161092970218163</v>
+        <v>0.00247446948758627</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3604761361708455</v>
+        <v>0.9513328569864008</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.186128141750089</v>
+        <v>0.3885212824527855</v>
       </c>
       <c r="L17">
-        <v>0.2069185096095936</v>
+        <v>0.2209980013556532</v>
       </c>
       <c r="M17">
-        <v>0.2908749055695736</v>
+        <v>0.1682862610313123</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.47157127260293</v>
+        <v>3.610784653478419</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.318890272362466</v>
+        <v>0.5675699448531759</v>
       </c>
       <c r="C18">
-        <v>0.1158690045119073</v>
+        <v>0.1324022548610913</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05485930839208386</v>
+        <v>0.1159265043694653</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008169485912023572</v>
+        <v>0.002474966443615853</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3637082991515932</v>
+        <v>0.9537386751254147</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.157204846140388</v>
+        <v>0.3795671555319586</v>
       </c>
       <c r="L18">
-        <v>0.2028803718306449</v>
+        <v>0.2201709301299672</v>
       </c>
       <c r="M18">
-        <v>0.2837728344672286</v>
+        <v>0.1663283710560677</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.478806739272244</v>
+        <v>3.619060139729555</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.307490588597034</v>
+        <v>0.5641871548785389</v>
       </c>
       <c r="C19">
-        <v>0.1155427586577318</v>
+        <v>0.1322955115186275</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05475829887386396</v>
+        <v>0.1159534983671886</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008172337658457906</v>
+        <v>0.002475135882768567</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3648199645678432</v>
+        <v>0.9545611290240466</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.147416179574407</v>
+        <v>0.3765347098944289</v>
       </c>
       <c r="L19">
-        <v>0.2015172690672529</v>
+        <v>0.2198925954658222</v>
       </c>
       <c r="M19">
-        <v>0.2813708339119501</v>
+        <v>0.1656662272067067</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.481331905144557</v>
+        <v>3.621894510860614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358818855082632</v>
+        <v>0.5794137629237639</v>
       </c>
       <c r="C20">
-        <v>0.1170122181254101</v>
+        <v>0.1327758890284585</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05521870405368823</v>
+        <v>0.1158352062788097</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008159544367046169</v>
+        <v>0.002474378071531749</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3598862163257408</v>
+        <v>0.9508913395985807</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.19148329665768</v>
+        <v>0.3901781383653997</v>
       </c>
       <c r="L20">
-        <v>0.2076678689400353</v>
+        <v>0.2211518794003524</v>
       </c>
       <c r="M20">
-        <v>0.2921906169582371</v>
+        <v>0.168648984393414</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.470268235120329</v>
+        <v>3.609268453479217</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.531828142827266</v>
+        <v>0.6306344118330287</v>
       </c>
       <c r="C21">
-        <v>0.1219741523543618</v>
+        <v>0.1343901306124025</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05687083453834774</v>
+        <v>0.1154933967446894</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008117242802478386</v>
+        <v>0.002471913697922558</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3445497752889537</v>
+        <v>0.9391099215943193</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.339887040129213</v>
+        <v>0.4359647593248042</v>
       </c>
       <c r="L21">
-        <v>0.2286357039699709</v>
+        <v>0.2255006523784147</v>
       </c>
       <c r="M21">
-        <v>0.3287421004659379</v>
+        <v>0.1787231704206462</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.438516436990213</v>
+        <v>3.569103320553765</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.645382850252957</v>
+        <v>0.6641521366140637</v>
       </c>
       <c r="C22">
-        <v>0.1252376910305841</v>
+        <v>0.1354451624029167</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05803258388650256</v>
+        <v>0.1153113699881985</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008090084912927409</v>
+        <v>0.002470363791065726</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.335494985080814</v>
+        <v>0.9318189881689989</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.437192579981087</v>
+        <v>0.4658462049028174</v>
       </c>
       <c r="L22">
-        <v>0.2425827868332959</v>
+        <v>0.2284301992072102</v>
       </c>
       <c r="M22">
-        <v>0.3527968531341656</v>
+        <v>0.1853456552612371</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.422022686292081</v>
+        <v>3.544535555111921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584727650727217</v>
+        <v>0.6462594802314072</v>
       </c>
       <c r="C23">
-        <v>0.1234938451674807</v>
+        <v>0.134882078562903</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0574047994990039</v>
+        <v>0.1154047426005569</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008104536188516022</v>
+        <v>0.002471185466395473</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3402361607739799</v>
+        <v>0.9356728787972273</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.385226049157723</v>
+        <v>0.4499020156420954</v>
       </c>
       <c r="L23">
-        <v>0.2351155143528842</v>
+        <v>0.2268586753963291</v>
       </c>
       <c r="M23">
-        <v>0.3399419505660362</v>
+        <v>0.1818076416906749</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.430421658358597</v>
+        <v>3.55749385383821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.355998243810291</v>
+        <v>0.578577350337099</v>
       </c>
       <c r="C24">
-        <v>0.1169314346167738</v>
+        <v>0.1327495077170582</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05519303370493311</v>
+        <v>0.1158414927560916</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008160244298038241</v>
+        <v>0.002474419378642296</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3601525968779313</v>
+        <v>0.9510908032707412</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.189062189499452</v>
+        <v>0.3894290999713803</v>
       </c>
       <c r="L24">
-        <v>0.2073290126471079</v>
+        <v>0.2210822815673481</v>
       </c>
       <c r="M24">
-        <v>0.2915957444192756</v>
+        <v>0.1684849861379547</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.470855943015721</v>
+        <v>3.609953327824797</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.11090342206947</v>
+        <v>0.5057751927134291</v>
       </c>
       <c r="C25">
-        <v>0.1099276741620159</v>
+        <v>0.1304502642380356</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05313670818943983</v>
+        <v>0.1164908463546901</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008222558074020836</v>
+        <v>0.002478169865152813</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3855146005763004</v>
+        <v>0.9694768446622497</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.978450580875716</v>
+        <v>0.3240345090830772</v>
       </c>
       <c r="L25">
-        <v>0.1782888465081172</v>
+        <v>0.2152291207016077</v>
       </c>
       <c r="M25">
-        <v>0.2400444022302253</v>
+        <v>0.1542839815318438</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.531372725794895</v>
+        <v>3.673759499059074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4523597029431983</v>
+        <v>0.9313451418061902</v>
       </c>
       <c r="C2">
-        <v>0.1287589183487867</v>
+        <v>0.1048204468793017</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1171229856424318</v>
+        <v>0.05188219703159191</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002481159070970639</v>
+        <v>0.0008270490530520526</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9845259143874507</v>
+        <v>0.4072417307413296</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2757525494700133</v>
+        <v>0.8238136849699345</v>
       </c>
       <c r="L2">
-        <v>0.2112457154521081</v>
+        <v>0.1575876038843802</v>
       </c>
       <c r="M2">
-        <v>0.1439763166999981</v>
+        <v>0.2024748068504607</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.726952385020709</v>
+        <v>1.589062827659717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4162846600611942</v>
+        <v>0.8099966205159603</v>
       </c>
       <c r="C3">
-        <v>0.1276140261129797</v>
+        <v>0.1013836765562388</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1176478481342205</v>
+        <v>0.05118286915066506</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002483328078575043</v>
+        <v>0.0008304318827799446</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9956685842478841</v>
+        <v>0.4237402493495317</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2429546270339245</v>
+        <v>0.7191015977389128</v>
       </c>
       <c r="L3">
-        <v>0.208750502066934</v>
+        <v>0.1439274406430044</v>
       </c>
       <c r="M3">
-        <v>0.1370848447005635</v>
+        <v>0.1771975170617175</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.766878640232349</v>
+        <v>1.63570414545913</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3941993028792865</v>
+        <v>0.7355887376150179</v>
       </c>
       <c r="C4">
-        <v>0.1269118651315111</v>
+        <v>0.09928365027158037</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1180178252732205</v>
+        <v>0.05082446887619874</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002484730859651526</v>
+        <v>0.0008325772464996764</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.002976018568582</v>
+        <v>0.4347047253023515</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2227811129830997</v>
+        <v>0.6547956523231449</v>
       </c>
       <c r="L4">
-        <v>0.2073195973426252</v>
+        <v>0.1357052015886211</v>
       </c>
       <c r="M4">
-        <v>0.1329005115409032</v>
+        <v>0.1617504965409431</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.793306284234376</v>
+        <v>1.667862777220037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3852163118349381</v>
+        <v>0.7052833797967537</v>
       </c>
       <c r="C5">
-        <v>0.1266259592590373</v>
+        <v>0.09843018463635644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1181806122763227</v>
+        <v>0.05069578773198913</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002485320410211591</v>
+        <v>0.0008334689486607292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.006071009493059</v>
+        <v>0.4393768278958525</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2145518526503736</v>
+        <v>0.6285801276613086</v>
       </c>
       <c r="L5">
-        <v>0.2067620058614992</v>
+        <v>0.132393765810221</v>
       </c>
       <c r="M5">
-        <v>0.1312073283952166</v>
+        <v>0.1554718186158084</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.804556776888262</v>
+        <v>1.681824485468923</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3837257375166985</v>
+        <v>0.7002519437449166</v>
       </c>
       <c r="C6">
-        <v>0.1265784995356185</v>
+        <v>0.09828860019970165</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1182083694391665</v>
+        <v>0.05067545572278043</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002485419387507209</v>
+        <v>0.00083361807673904</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.00659200682796</v>
+        <v>0.440164782328381</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2131848990620284</v>
+        <v>0.6242262326581169</v>
       </c>
       <c r="L6">
-        <v>0.2066709613903939</v>
+        <v>0.1318462053519696</v>
       </c>
       <c r="M6">
-        <v>0.1309269033057561</v>
+        <v>0.1544301560044268</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.806453965636848</v>
+        <v>1.684193755799882</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3940780855270702</v>
+        <v>0.7351799736334499</v>
       </c>
       <c r="C7">
-        <v>0.12690800833537</v>
+        <v>0.09927213108250044</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1180199719854613</v>
+        <v>0.05082266372879829</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002484738737989726</v>
+        <v>0.0008325892013504712</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.003017284320432</v>
+        <v>0.4347669164550982</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2226701635703563</v>
+        <v>0.654442151667439</v>
       </c>
       <c r="L7">
-        <v>0.207311974065</v>
+        <v>0.1356603867244317</v>
       </c>
       <c r="M7">
-        <v>0.1328776280514425</v>
+        <v>0.1616657578664764</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.793456064665079</v>
+        <v>1.668047637264451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4399079496160709</v>
+        <v>0.8894777790542605</v>
       </c>
       <c r="C8">
-        <v>0.1283640079237145</v>
+        <v>0.103633185080092</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1172940688697981</v>
+        <v>0.05162603890654616</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002481892238955574</v>
+        <v>0.0008282014485517417</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9882712483477931</v>
+        <v>0.4127536878433915</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2644514902856656</v>
+        <v>0.7877069900628726</v>
       </c>
       <c r="L8">
-        <v>0.2103644123352879</v>
+        <v>0.1528418573673207</v>
       </c>
       <c r="M8">
-        <v>0.1415904477198353</v>
+        <v>0.1937425261541179</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.740321986186132</v>
+        <v>1.604396501461352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5302704066480715</v>
+        <v>1.193292136264404</v>
       </c>
       <c r="C9">
-        <v>0.1312245696748917</v>
+        <v>0.1122782695041664</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1162482338601052</v>
+        <v>0.05378753598427899</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002476871280257576</v>
+        <v>0.0008201257889859518</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9630487987687779</v>
+        <v>0.3764789120538623</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3460840320424268</v>
+        <v>1.049301800973808</v>
       </c>
       <c r="L9">
-        <v>0.2171501966113283</v>
+        <v>0.1879575736746304</v>
       </c>
       <c r="M9">
-        <v>0.159044739797217</v>
+        <v>0.2573412968609112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.651301402494781</v>
+        <v>1.508857537562108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5969324507784393</v>
+        <v>1.417928229336496</v>
       </c>
       <c r="C10">
-        <v>0.1333282834536931</v>
+        <v>0.1187059920323392</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1157089544541385</v>
+        <v>0.05576626529546402</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002473521088188213</v>
+        <v>0.000814495560919159</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9467679581041963</v>
+        <v>0.3544275267505803</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4058563027639366</v>
+        <v>1.242208002340618</v>
       </c>
       <c r="L10">
-        <v>0.2226204855192577</v>
+        <v>0.2147916108386454</v>
       </c>
       <c r="M10">
-        <v>0.1720878438163709</v>
+        <v>0.3046647219443628</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.595146510079303</v>
+        <v>1.458481309843492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6273128576712566</v>
+        <v>1.52059073235074</v>
       </c>
       <c r="C11">
-        <v>0.1342855251342669</v>
+        <v>0.1216514705006162</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1155131324669121</v>
+        <v>0.05675907573356476</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002472069842852375</v>
+        <v>0.0008119954985564657</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9398495092083685</v>
+        <v>0.3454880466622576</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4330002813868248</v>
+        <v>1.330253568327038</v>
       </c>
       <c r="L11">
-        <v>0.2252137574048874</v>
+        <v>0.2272632107383146</v>
       </c>
       <c r="M11">
-        <v>0.1780681226675398</v>
+        <v>0.3263643160610314</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.571607914037386</v>
+        <v>1.440330378426793</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6388245321844295</v>
+        <v>1.559548488240239</v>
       </c>
       <c r="C12">
-        <v>0.1346480194514683</v>
+        <v>0.1227703606567871</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1154460772779391</v>
+        <v>0.05714903826075535</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.00247153070588587</v>
+        <v>0.0008110571950846211</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9372997948468402</v>
+        <v>0.342268274179812</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4432718265495055</v>
+        <v>1.363647584777112</v>
       </c>
       <c r="L12">
-        <v>0.2262107690738304</v>
+        <v>0.2320273934518866</v>
       </c>
       <c r="M12">
-        <v>0.1803393275260774</v>
+        <v>0.3346096948070851</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.562983000017724</v>
+        <v>1.434183857895988</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6363449748627374</v>
+        <v>1.551154380152468</v>
       </c>
       <c r="C13">
-        <v>0.134569949926636</v>
+        <v>0.1225292249371321</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1154602034229715</v>
+        <v>0.05706441864757572</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002471646356010548</v>
+        <v>0.000811258907449146</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9378458012787902</v>
+        <v>0.3429542132070438</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4410599988362662</v>
+        <v>1.356453039178234</v>
       </c>
       <c r="L13">
-        <v>0.2259953790321276</v>
+        <v>0.2309994410828864</v>
       </c>
       <c r="M13">
-        <v>0.1798498915076436</v>
+        <v>0.3328325920063548</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.564827690534131</v>
+        <v>1.435474603380655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6282597883351286</v>
+        <v>1.523794092468449</v>
       </c>
       <c r="C14">
-        <v>0.1343153477688261</v>
+        <v>0.1217434495944687</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1155074736466677</v>
+        <v>0.05679087343317768</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002472025279103355</v>
+        <v>0.0008119181373132189</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9396383366694785</v>
+        <v>0.3452197887800139</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4338454769655868</v>
+        <v>1.332999783754644</v>
       </c>
       <c r="L14">
-        <v>0.2252954820490345</v>
+        <v>0.2276543117666279</v>
       </c>
       <c r="M14">
-        <v>0.1782548445353314</v>
+        <v>0.3270420820433273</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.570892551778769</v>
+        <v>1.43980988563564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6233083044029399</v>
+        <v>1.507046181635644</v>
       </c>
       <c r="C15">
-        <v>0.134159396752743</v>
+        <v>0.1212626083907153</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1155373518580713</v>
+        <v>0.05662516403920392</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002472258735851478</v>
+        <v>0.0008123230190395853</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.940745452493907</v>
+        <v>0.3466293199588684</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4294254076539517</v>
+        <v>1.318641243868626</v>
       </c>
       <c r="L15">
-        <v>0.2248687255964654</v>
+        <v>0.2256108272547692</v>
       </c>
       <c r="M15">
-        <v>0.1772786879125121</v>
+        <v>0.3234990094008054</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.574645047089334</v>
+        <v>1.442561307833557</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5949480761209713</v>
+        <v>1.411229669726936</v>
       </c>
       <c r="C16">
-        <v>0.1332657280795644</v>
+        <v>0.1185139647152482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1157227462564254</v>
+        <v>0.05570330492662734</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002473617390879345</v>
+        <v>0.0008146601447513286</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9472299112902505</v>
+        <v>0.3550344199767999</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4040813907911911</v>
+        <v>1.236460818736333</v>
       </c>
       <c r="L16">
-        <v>0.2224531116835777</v>
+        <v>0.2139821738724095</v>
       </c>
       <c r="M16">
-        <v>0.1716979502516907</v>
+        <v>0.3032503550252557</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.596725198294678</v>
+        <v>1.459766902277721</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5775637071417918</v>
+        <v>1.352580139274806</v>
       </c>
       <c r="C17">
-        <v>0.1327175354032732</v>
+        <v>0.1168335437406114</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1158491436757085</v>
+        <v>0.05516198252830229</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.00247446948758627</v>
+        <v>0.0008161092969617978</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9513328569864008</v>
+        <v>0.3604761361708491</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3885212824527855</v>
+        <v>1.186128141750174</v>
       </c>
       <c r="L17">
-        <v>0.2209980013556532</v>
+        <v>0.2069185096095794</v>
       </c>
       <c r="M17">
-        <v>0.1682862610313123</v>
+        <v>0.2908749055695807</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.610784653478419</v>
+        <v>1.471571272602958</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5675699448531759</v>
+        <v>1.318890272362495</v>
       </c>
       <c r="C18">
-        <v>0.1324022548610913</v>
+        <v>0.1158690045125184</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1159265043694653</v>
+        <v>0.05485930839203768</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002474966443615853</v>
+        <v>0.0008169485912807897</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9537386751254147</v>
+        <v>0.3637082991516003</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3795671555319586</v>
+        <v>1.157204846140388</v>
       </c>
       <c r="L18">
-        <v>0.2201709301299672</v>
+        <v>0.2028803718305596</v>
       </c>
       <c r="M18">
-        <v>0.1663283710560677</v>
+        <v>0.2837728344672499</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.619060139729555</v>
+        <v>1.478806739272216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5641871548785389</v>
+        <v>1.307490588597062</v>
       </c>
       <c r="C19">
-        <v>0.1322955115186275</v>
+        <v>0.1155427586574831</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1159534983671886</v>
+        <v>0.05475829887386219</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002475135882768567</v>
+        <v>0.0008172337658640365</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9545611290240466</v>
+        <v>0.3648199645678325</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3765347098944289</v>
+        <v>1.147416179574435</v>
       </c>
       <c r="L19">
-        <v>0.2198925954658222</v>
+        <v>0.2015172690671676</v>
       </c>
       <c r="M19">
-        <v>0.1656662272067067</v>
+        <v>0.2813708339119643</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.621894510860614</v>
+        <v>1.481331905144586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5794137629237639</v>
+        <v>1.35881885508266</v>
       </c>
       <c r="C20">
-        <v>0.1327758890284585</v>
+        <v>0.1170122181252395</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1158352062788097</v>
+        <v>0.05521870405368645</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002474378071531749</v>
+        <v>0.0008159544366620393</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9508913395985807</v>
+        <v>0.3598862163257124</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3901781383653997</v>
+        <v>1.191483296657623</v>
       </c>
       <c r="L20">
-        <v>0.2211518794003524</v>
+        <v>0.2076678689400921</v>
       </c>
       <c r="M20">
-        <v>0.168648984393414</v>
+        <v>0.2921906169582442</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.609268453479217</v>
+        <v>1.470268235120287</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6306344118330287</v>
+        <v>1.531828142827379</v>
       </c>
       <c r="C21">
-        <v>0.1343901306124025</v>
+        <v>0.1219741523545892</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1154933967446894</v>
+        <v>0.05687083453837261</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002471913697922558</v>
+        <v>0.0008117242802461029</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9391099215943193</v>
+        <v>0.3445497752889644</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4359647593248042</v>
+        <v>1.339887040129128</v>
       </c>
       <c r="L21">
-        <v>0.2255006523784147</v>
+        <v>0.2286357039699567</v>
       </c>
       <c r="M21">
-        <v>0.1787231704206462</v>
+        <v>0.3287421004659379</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.569103320553765</v>
+        <v>1.438516436990142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6641521366140637</v>
+        <v>1.645382850252957</v>
       </c>
       <c r="C22">
-        <v>0.1354451624029167</v>
+        <v>0.1252376910302928</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1153113699881985</v>
+        <v>0.05803258388648835</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002470363791065726</v>
+        <v>0.0008090084912352187</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9318189881689989</v>
+        <v>0.3354949850807962</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4658462049028174</v>
+        <v>1.437192579981314</v>
       </c>
       <c r="L22">
-        <v>0.2284301992072102</v>
+        <v>0.2425827868332959</v>
       </c>
       <c r="M22">
-        <v>0.1853456552612371</v>
+        <v>0.3527968531341514</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.544535555111921</v>
+        <v>1.422022686292152</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6462594802314072</v>
+        <v>1.584727650727217</v>
       </c>
       <c r="C23">
-        <v>0.134882078562903</v>
+        <v>0.1234938451676442</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1154047426005569</v>
+        <v>0.05740479949901989</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002471185466395473</v>
+        <v>0.0008104536188519029</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9356728787972273</v>
+        <v>0.340236160773987</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4499020156420954</v>
+        <v>1.385226049157666</v>
       </c>
       <c r="L23">
-        <v>0.2268586753963291</v>
+        <v>0.2351155143528416</v>
       </c>
       <c r="M23">
-        <v>0.1818076416906749</v>
+        <v>0.3399419505660362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.55749385383821</v>
+        <v>1.430421658358554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.578577350337099</v>
+        <v>1.355998243810291</v>
       </c>
       <c r="C24">
-        <v>0.1327495077170582</v>
+        <v>0.1169314346170225</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1158414927560916</v>
+        <v>0.0551930337049189</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002474419378642296</v>
+        <v>0.0008160244298043685</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9510908032707412</v>
+        <v>0.36015259687791</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3894290999713803</v>
+        <v>1.189062189499538</v>
       </c>
       <c r="L24">
-        <v>0.2210822815673481</v>
+        <v>0.207329012647179</v>
       </c>
       <c r="M24">
-        <v>0.1684849861379547</v>
+        <v>0.2915957444192756</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.609953327824797</v>
+        <v>1.470855943015764</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5057751927134291</v>
+        <v>1.110903422069384</v>
       </c>
       <c r="C25">
-        <v>0.1304502642380356</v>
+        <v>0.1099276741617814</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1164908463546901</v>
+        <v>0.05313670818943805</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002478169865152813</v>
+        <v>0.0008222558074599817</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9694768446622497</v>
+        <v>0.3855146005763004</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3240345090830772</v>
+        <v>0.9784505808757444</v>
       </c>
       <c r="L25">
-        <v>0.2152291207016077</v>
+        <v>0.1782888465081172</v>
       </c>
       <c r="M25">
-        <v>0.1542839815318438</v>
+        <v>0.2400444022302217</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.673759499059074</v>
+        <v>1.53137272579491</v>
       </c>
     </row>
   </sheetData>
